--- a/Reimbursement_Form.xlsx
+++ b/Reimbursement_Form.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t/>
   </si>
@@ -51,9 +51,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Ground transportation (receipts required for &gt;$75)</t>
-  </si>
-  <si>
     <t>Other (please describe)</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Childcare (up to $75 per day)</t>
   </si>
   <si>
-    <t>Food (up to $50 per travel day)</t>
-  </si>
-  <si>
     <t>Reimbursement Form</t>
   </si>
   <si>
@@ -87,7 +81,10 @@
     <t>Receipts required for expenses over $75</t>
   </si>
   <si>
-    <t>Date (dropdown)</t>
+    <t>Cancellation fee (receipt required)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]dddd\,\ d\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dddd\,\ d\ mmmm"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -302,80 +299,80 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="7" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,7 +655,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,188 +667,188 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="C6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="9">
         <f t="shared" ref="H15:H30" si="0">SUM(C15:G15)</f>
         <v>0</v>
@@ -860,12 +857,12 @@
     </row>
     <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -874,12 +871,12 @@
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -888,12 +885,12 @@
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -902,12 +899,12 @@
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -916,12 +913,12 @@
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -930,12 +927,12 @@
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -944,12 +941,12 @@
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -958,12 +955,12 @@
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -972,12 +969,12 @@
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -986,12 +983,12 @@
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="9">
         <f>SUM(C25:G25)</f>
         <v>0</v>
@@ -1000,12 +997,12 @@
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="9">
         <f>SUM(C26:G26)</f>
         <v>0</v>
@@ -1014,23 +1011,23 @@
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="9"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1039,12 +1036,12 @@
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1053,12 +1050,12 @@
     </row>
     <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
       <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1081,11 +1078,11 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="1"/>
       <c r="G32" s="5" t="s">
         <v>3</v>
@@ -1094,11 +1091,11 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="1"/>
       <c r="G33" s="6" t="s">
         <v>4</v>
@@ -1111,15 +1108,21 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="C5:H5"/>
@@ -1136,6 +1139,15 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="E18:G18"/>
@@ -1143,38 +1155,17 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$A$3:$A$7</xm:f>
+            <xm:f>Sheet2!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C15:D30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$10:$A$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1187,7 +1178,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,68 +1188,49 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
-        <v>42519</v>
-      </c>
+      <c r="A10" s="16"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
-        <v>42520</v>
-      </c>
+      <c r="A11" s="16"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
-        <v>42521</v>
-      </c>
+      <c r="A12" s="16"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
-        <v>42522</v>
-      </c>
+      <c r="A13" s="16"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
-        <v>42523</v>
-      </c>
+      <c r="A14" s="16"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
-        <v>42524</v>
-      </c>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
-        <v>42525</v>
-      </c>
+      <c r="A16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
